--- a/client_account/test_Excel/単体テスト_命令網羅.xlsx
+++ b/client_account/test_Excel/単体テスト_命令網羅.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E198EB6-28FC-419C-9283-B43282C8E617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8451C9F-206F-452C-A3C8-C9669DD751FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
   </bookViews>
   <sheets>
     <sheet name="DIBlog表紙" sheetId="1" r:id="rId1"/>
     <sheet name="アカウント登録画面" sheetId="2" r:id="rId2"/>
+    <sheet name="アカウント登録確認画面" sheetId="3" r:id="rId3"/>
+    <sheet name="アカウント登録完了画面" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -108,16 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面変移</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>regist.phpをリンク付けしたアカウント登録ボタンを押す</t>
     <rPh sb="14" eb="15">
       <t>ヅ</t>
@@ -203,175 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>郵便番号欄にデータが入力される</t>
-    <rPh sb="0" eb="4">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（性）の欄にデータを入力</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（性）欄にデータが入力される</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（名）の欄にデータを入力</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（名）欄にデータが入力される</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カナ（性）の欄にデータを入力</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カナ（名）欄にデータが入力される</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カナ（名）の欄にデータを入力</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスの欄にデータを入力</t>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスの欄にデータが入力される</t>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードの欄にデータを入力</t>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードの欄にデータが入力される</t>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号の欄にデータを入力する</t>
-    <rPh sb="0" eb="4">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>都道府県選択（例：福岡県）を選択する</t>
     <rPh sb="0" eb="4">
       <t>トドウフケン</t>
@@ -407,70 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>住所（市町村）の欄にデータを入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シチョウソン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（市町村）の欄にデータが入力される</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シチョウソン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（番地）の欄にデータを入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（番地）の欄にデータが入力される</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント権限（一般）を選択する</t>
     <rPh sb="5" eb="7">
       <t>ケンゲン</t>
@@ -565,6 +324,836 @@
   </si>
   <si>
     <t>PC/ブラウザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（性）の欄に正常なデータを入力</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（性）欄に正常なデータが入力される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の欄に正常なデータを入力</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）欄に正常なデータが入力される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（性）の欄に正常なデータを入力</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）欄に正常なデータが入力される</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の欄に正常なデータを入力</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄に正常なデータを入力</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄に正常なデータが入力される</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄に正常なデータを入力</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄に正常なデータが入力される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の欄に正常なデータを入力する</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号欄に正常なデータが入力される</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市町村）の欄に正常なデータを入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市町村）の欄に正常なデータが入力される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄に正常なデータを入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄に正常なデータが入力される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から変移してきて、ページが正常に表示される</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（性）の欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（性）の欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別欄にアカウント登録画面で選択した性別（男）が移行される</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別欄にアカウント登録画面で選択した性別（男）が移行される</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県欄にアカウント登録画面で選択された福岡県が移行される</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フクオカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市町村）の欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄にアカウント登録画面で入力したデータが移行される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で選択されたアカウント権限（一般）が移行される</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で選択されたアカウント権限（管理者）が移行される</t>
+    <rPh sb="23" eb="26">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に戻るボタン</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”前に戻る”のボタンを押す</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”登録する”のボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”前に戻る”のボタンが押される</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”登録する”のボタンが押される</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（性）欄にアカウント登録画面で入力したデータが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）欄にアカウント登録画面で入力したデータが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）欄にアカウント登録画面で入力したデータが表示される</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄にアカウント登録画面で入力したデータが表示される</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号欄にアカウント登録画面で入力したデータが表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市町村）の欄にアカウント登録画面で入力したデータが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄にアカウント登録画面で入力したデータが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別（男）が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別（女）が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県選択欄に福岡県が表示される</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>センタクラン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フクオカケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限（一般）が表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限（管理者）が表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク先のページへ変移</t>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”登録完了しました”の文字が表示される</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄にアカウント登録画面で入力したデータが目隠しされた状態で表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>メカク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で表示されたデータを登録したと表示する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに戻るボタン</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”TOPページに戻るボタン”を押して、DIBlogの表紙に画面が移行する</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"TOPページに戻るボタン"が押され、ブラウザの表示がDIBlogの表紙に戻る</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -671,23 +1260,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6390B-56AD-40ED-9152-5D5825732B2C}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1023,10 +1612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5"/>
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -1071,7 +1660,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1079,10 +1668,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1091,7 +1680,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1373,14 +1962,14 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" style="1"/>
@@ -1389,458 +1978,1314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52095E07-41D2-4F5E-A15E-167352751EE9}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354B7C4-3BD4-4238-B4E2-CFCEA16FD67D}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/client_account/test_Excel/単体テスト_命令網羅.xlsx
+++ b/client_account/test_Excel/単体テスト_命令網羅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8451C9F-206F-452C-A3C8-C9669DD751FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D76B61E-BCD3-4E44-8C11-07BB8B1E439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="2" activeTab="2" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
   </bookViews>
   <sheets>
     <sheet name="DIBlog表紙" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -861,19 +861,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>”前に戻る”のボタンが押される</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>”登録する”のボタンが押される</t>
     <rPh sb="1" eb="3">
       <t>トウロク</t>
@@ -1153,6 +1140,60 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面のサイズを変更すると表示が崩れる</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”前に戻る”のボタンが押され、アカウント登録画面で入力したデータを保持したままアカウント登録画面が表示される</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1244,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,14 +1310,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6390B-56AD-40ED-9152-5D5825732B2C}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1605,17 +1649,17 @@
     <col min="3" max="3" width="33.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.08203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -1643,7 +1687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1656,9 +1700,15 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -1676,8 +1726,12 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45245</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>30</v>
@@ -1961,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD2FFDD-6DE7-4BB7-AA10-1C4928E5A441}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1972,16 +2026,17 @@
     <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.4140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="6"/>
       <c r="D1"/>
       <c r="E1"/>
@@ -2015,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2028,9 +2083,15 @@
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
@@ -2048,8 +2109,12 @@
       <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45245</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
         <v>30</v>
@@ -2068,8 +2133,12 @@
       <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45245</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>30</v>
@@ -2088,8 +2157,12 @@
       <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45245</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>30</v>
@@ -2108,8 +2181,12 @@
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45245</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
         <v>30</v>
@@ -2128,8 +2205,12 @@
       <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45245</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -2148,8 +2229,12 @@
       <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45245</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>30</v>
@@ -2168,8 +2253,12 @@
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45245</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>30</v>
@@ -2188,8 +2277,12 @@
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45245</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>30</v>
@@ -2208,8 +2301,12 @@
       <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45245</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>30</v>
@@ -2228,8 +2325,12 @@
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45245</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
         <v>30</v>
@@ -2248,8 +2349,12 @@
       <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45245</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>30</v>
@@ -2268,8 +2373,12 @@
       <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45245</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>30</v>
@@ -2288,8 +2397,12 @@
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45245</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>30</v>
@@ -2308,8 +2421,12 @@
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45245</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>30</v>
@@ -2328,8 +2445,12 @@
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45245</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>30</v>
@@ -2444,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52095E07-41D2-4F5E-A15E-167352751EE9}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2454,15 +2575,17 @@
     <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.4140625" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
@@ -2490,7 +2613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2503,9 +2626,15 @@
       <c r="D3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
@@ -2521,10 +2650,14 @@
         <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45245</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
         <v>30</v>
@@ -2541,10 +2674,14 @@
         <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45245</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>30</v>
@@ -2561,10 +2698,14 @@
         <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45245</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>30</v>
@@ -2581,10 +2722,14 @@
         <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45245</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
         <v>30</v>
@@ -2601,10 +2746,14 @@
         <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45245</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -2621,10 +2770,14 @@
         <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45245</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>30</v>
@@ -2641,10 +2794,14 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45245</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>30</v>
@@ -2661,10 +2818,14 @@
         <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45245</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>30</v>
@@ -2681,10 +2842,14 @@
         <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45245</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>30</v>
@@ -2701,10 +2866,14 @@
         <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45245</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
         <v>30</v>
@@ -2721,10 +2890,14 @@
         <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45245</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>30</v>
@@ -2741,10 +2914,14 @@
         <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45245</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>30</v>
@@ -2761,10 +2938,14 @@
         <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45245</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>30</v>
@@ -2781,16 +2962,20 @@
         <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45245</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2801,10 +2986,14 @@
         <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45245</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>30</v>
@@ -2821,10 +3010,14 @@
         <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45245</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
@@ -2925,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354B7C4-3BD4-4238-B4E2-CFCEA16FD67D}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2935,15 +3128,16 @@
     <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
     <col min="8" max="8" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2977,7 +3171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2990,9 +3184,15 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3002,16 +3202,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45245</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>30</v>
@@ -3022,18 +3226,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45245</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">

--- a/client_account/test_Excel/単体テスト_命令網羅.xlsx
+++ b/client_account/test_Excel/単体テスト_命令網羅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D76B61E-BCD3-4E44-8C11-07BB8B1E439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE147F-3669-4B6F-92F7-39326DAC3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="2" activeTab="2" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
   </bookViews>
   <sheets>
     <sheet name="DIBlog表紙" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="96">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -299,16 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>”確認する”のボタンが押される</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録画面テスト</t>
     <rPh sb="5" eb="9">
       <t>トウロクガメン</t>
@@ -327,25 +317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（性）の欄に正常なデータを入力</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前（性）欄に正常なデータが入力される</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -362,22 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（名）の欄に正常なデータを入力</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前（名）欄に正常なデータが入力される</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -394,19 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カナ（性）の欄に正常なデータを入力</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カナ（名）欄に正常なデータが入力される</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -420,32 +362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カナ（名）の欄に正常なデータを入力</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスの欄に正常なデータを入力</t>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレスの欄に正常なデータが入力される</t>
     <rPh sb="8" eb="9">
       <t>ラン</t>
@@ -466,29 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードの欄に正常なデータが入力される</t>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号の欄に正常なデータを入力する</t>
-    <rPh sb="0" eb="4">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号欄に正常なデータが入力される</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
@@ -502,22 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>住所（市町村）の欄に正常なデータを入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シチョウソン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>住所（市町村）の欄に正常なデータが入力される</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
@@ -534,22 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>住所（番地）の欄に正常なデータを入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>住所（番地）の欄に正常なデータが入力される</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
@@ -566,22 +427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録画面から変移してきて、ページが正常に表示される</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前（性）の欄にアカウント登録画面で入力したデータが移行される</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -861,16 +706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>”登録する”のボタンが押される</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前（性）欄にアカウント登録画面で入力したデータが表示される</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -1034,16 +869,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リンク先のページへ変移</t>
-    <rPh sb="3" eb="4">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録完了</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -1106,25 +931,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>”TOPページに戻るボタン”を押して、DIBlogの表紙に画面が移行する</t>
-    <rPh sb="8" eb="9">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"TOPページに戻るボタン"が押され、ブラウザの表示がDIBlogの表紙に戻る</t>
     <rPh sb="8" eb="9">
       <t>モド</t>
@@ -1194,6 +1000,296 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（性）の欄に全角カタカナでデータを入力</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（性）の欄にひらがな・漢字でデータを入力</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の欄にひらがな・漢字でデータを入力</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の欄に全角カタカナでデータを入力</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄に半角ハイフンと"@"を含めた半角英数字でデータを入力</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄に半角英数字で最大１０文字を入力</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドットから始めても登録されてしまう</t>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄に正常なデータが入力される</t>
+  </si>
+  <si>
+    <t>郵便番号の欄に半角数字でデータを入力する</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市町村）の欄にひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）でデータを入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄にひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）でデータを入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドットから始めたデータでも登録されている</t>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”登録する”のボタンが押され、アカウント登録完了画面へと遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”確認する”のボタンが押されアカウント登録確認画面へと遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から遷移してきて、ページが正常に表示される</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面へとページが遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク先のページへ遷移</t>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”TOPページに戻るボタン”を押して、DIBlogの表紙に画面が遷移する</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1313,13 +1409,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1638,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6390B-56AD-40ED-9152-5D5825732B2C}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1656,10 +1752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -1701,16 +1797,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F3" s="4">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1718,23 +1814,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F4" s="4">
         <v>45245</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2015,28 +2111,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD2FFDD-6DE7-4BB7-AA10-1C4928E5A441}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="6"/>
       <c r="D1"/>
       <c r="E1"/>
@@ -2084,16 +2180,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="11">
+        <v>75</v>
+      </c>
+      <c r="F3" s="9">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2104,20 +2200,20 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="11">
+        <v>75</v>
+      </c>
+      <c r="F4" s="9">
         <v>45245</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2128,20 +2224,20 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="11">
+        <v>75</v>
+      </c>
+      <c r="F5" s="9">
         <v>45245</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2152,20 +2248,20 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="11">
+        <v>75</v>
+      </c>
+      <c r="F6" s="9">
         <v>45245</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2176,44 +2272,46 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="11">
+        <v>75</v>
+      </c>
+      <c r="F7" s="9">
         <v>45245</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="11">
-        <v>45245</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45245</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2224,20 +2322,20 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="11">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9">
         <v>45245</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2254,14 +2352,14 @@
         <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="11">
+        <v>75</v>
+      </c>
+      <c r="F10" s="9">
         <v>45245</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2278,14 +2376,14 @@
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="11">
+        <v>75</v>
+      </c>
+      <c r="F11" s="9">
         <v>45245</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2296,20 +2394,20 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="11">
+        <v>75</v>
+      </c>
+      <c r="F12" s="9">
         <v>45245</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2326,62 +2424,62 @@
         <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="11">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9">
         <v>45245</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="11">
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
         <v>45245</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
+      <c r="C15" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="11">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
         <v>45245</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2398,14 +2496,14 @@
         <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="11">
+        <v>75</v>
+      </c>
+      <c r="F16" s="9">
         <v>45245</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2422,14 +2520,14 @@
         <v>24</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="11">
+        <v>75</v>
+      </c>
+      <c r="F17" s="9">
         <v>45245</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2443,17 +2541,17 @@
         <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="11">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9">
         <v>45245</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2565,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52095E07-41D2-4F5E-A15E-167352751EE9}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2576,15 +2674,15 @@
     <col min="4" max="4" width="59.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.4140625" customWidth="1"/>
+    <col min="7" max="7" width="39.9140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2613,7 +2711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2624,19 +2722,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="11">
+        <v>75</v>
+      </c>
+      <c r="F3" s="9">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2644,23 +2742,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="11">
+        <v>75</v>
+      </c>
+      <c r="F4" s="9">
         <v>45245</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2671,20 +2769,20 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="11">
+        <v>75</v>
+      </c>
+      <c r="F5" s="9">
         <v>45245</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2695,20 +2793,20 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="11">
+        <v>75</v>
+      </c>
+      <c r="F6" s="9">
         <v>45245</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2719,20 +2817,20 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="11">
+        <v>75</v>
+      </c>
+      <c r="F7" s="9">
         <v>45245</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2743,20 +2841,20 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="11">
+        <v>75</v>
+      </c>
+      <c r="F8" s="9">
         <v>45245</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2767,20 +2865,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45245</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="11">
-        <v>45245</v>
-      </c>
-      <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2791,20 +2891,20 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="11">
+        <v>75</v>
+      </c>
+      <c r="F10" s="9">
         <v>45245</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2815,20 +2915,20 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="11">
+        <v>75</v>
+      </c>
+      <c r="F11" s="9">
         <v>45245</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2839,20 +2939,20 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="11">
+        <v>75</v>
+      </c>
+      <c r="F12" s="9">
         <v>45245</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2863,20 +2963,20 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="11">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9">
         <v>45245</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2887,20 +2987,20 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="11">
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
         <v>45245</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2911,20 +3011,20 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="11">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
         <v>45245</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2935,20 +3035,20 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="11">
+        <v>75</v>
+      </c>
+      <c r="F16" s="9">
         <v>45245</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2959,20 +3059,20 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="11">
+        <v>75</v>
+      </c>
+      <c r="F17" s="9">
         <v>45245</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2980,23 +3080,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="11">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9">
         <v>45245</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3004,18 +3104,18 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="11">
+        <v>75</v>
+      </c>
+      <c r="F19" s="9">
         <v>45245</v>
       </c>
       <c r="G19" s="5"/>
@@ -3118,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354B7C4-3BD4-4238-B4E2-CFCEA16FD67D}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3134,10 +3234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="10"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3171,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3185,16 +3285,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F3" s="4">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3202,23 +3302,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F4" s="4">
         <v>45245</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3226,23 +3326,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4">
         <v>45245</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">

--- a/client_account/test_Excel/単体テスト_命令網羅.xlsx
+++ b/client_account/test_Excel/単体テスト_命令網羅.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE147F-3669-4B6F-92F7-39326DAC3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE9654-6AA7-40A7-A466-0DD5AF52F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
   </bookViews>
   <sheets>
     <sheet name="DIBlog表紙" sheetId="1" r:id="rId1"/>
@@ -93,16 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページが正常に表示される</t>
-    <rPh sb="4" eb="6">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ページ表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -130,16 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Diblogから変移してきて、ページが正常に表示される</t>
-    <rPh sb="19" eb="21">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力フォーム</t>
   </si>
   <si>
@@ -1233,25 +1213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録画面から遷移してきて、ページが正常に表示される</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録画面へとページが遷移する</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -1289,6 +1250,36 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページが文字化けや表記崩れがなく表示される</t>
+    <rPh sb="4" eb="7">
+      <t>モジバ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒョウキクズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diblogから変移してきて、ページが文字化けや表記崩れがなく表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から遷移してきて、ページが文字化けや表記崩れがなく表示される</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1735,7 +1726,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1753,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -1788,25 +1779,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1814,23 +1805,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4">
         <v>45245</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2112,7 +2103,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2120,7 +2111,7 @@
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
@@ -2130,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="6"/>
@@ -2166,30 +2157,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="9">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2197,23 +2188,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9">
         <v>45245</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2221,23 +2212,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="9">
         <v>45245</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2245,23 +2236,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9">
         <v>45245</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2269,23 +2260,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="9">
         <v>45245</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2293,25 +2284,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45245</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2319,23 +2310,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="9">
         <v>45245</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2343,23 +2334,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="9">
         <v>45245</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2367,23 +2358,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="9">
         <v>45245</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2391,23 +2382,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="9">
         <v>45245</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2415,23 +2406,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="9">
         <v>45245</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2439,23 +2430,23 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="9">
         <v>45245</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2463,23 +2454,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="9">
         <v>45245</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2487,23 +2478,23 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9">
         <v>45245</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2511,23 +2502,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9">
         <v>45245</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2535,23 +2526,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="9">
         <v>45245</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2663,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52095E07-41D2-4F5E-A15E-167352751EE9}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2680,7 +2671,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="8"/>
@@ -2711,30 +2702,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="9">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2742,23 +2733,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9">
         <v>45245</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2766,23 +2757,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="9">
         <v>45245</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2790,23 +2781,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9">
         <v>45245</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2814,23 +2805,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="9">
         <v>45245</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2838,23 +2829,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="9">
         <v>45245</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2862,25 +2853,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="9">
         <v>45245</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2888,23 +2879,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="9">
         <v>45245</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2912,23 +2903,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="9">
         <v>45245</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2936,23 +2927,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="9">
         <v>45245</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2960,23 +2951,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="9">
         <v>45245</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2984,23 +2975,23 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="9">
         <v>45245</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3008,23 +2999,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="9">
         <v>45245</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3032,23 +3023,23 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9">
         <v>45245</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3056,23 +3047,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9">
         <v>45245</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3080,23 +3071,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="9">
         <v>45245</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3104,16 +3095,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="9">
         <v>45245</v>
@@ -3218,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354B7C4-3BD4-4238-B4E2-CFCEA16FD67D}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3235,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="1"/>
@@ -3276,25 +3267,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4">
         <v>45245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3302,23 +3293,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4">
         <v>45245</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -3326,23 +3317,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4">
         <v>45245</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3603,5 +3594,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/client_account/test_Excel/単体テスト_命令網羅.xlsx
+++ b/client_account/test_Excel/単体テスト_命令網羅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE9654-6AA7-40A7-A466-0DD5AF52F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC3203-D34D-4DB9-85FA-58B2AFB2328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{8BAD9E22-F54F-4C39-BA41-08BD5C835955}"/>
   </bookViews>
@@ -984,73 +984,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カナ（性）の欄に全角カタカナでデータを入力</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（性）の欄にひらがな・漢字でデータを入力</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（名）の欄にひらがな・漢字でデータを入力</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カナ（名）の欄に全角カタカナでデータを入力</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレスの欄に半角ハイフンと"@"を含めた半角英数字でデータを入力</t>
     <rPh sb="8" eb="9">
       <t>ラン</t>
@@ -1108,57 +1041,6 @@
     <t>パスワードの欄に正常なデータが入力される</t>
   </si>
   <si>
-    <t>郵便番号の欄に半角数字でデータを入力する</t>
-    <rPh sb="0" eb="4">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（市町村）の欄にひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）でデータを入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シチョウソン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（番地）の欄にひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）でデータを入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドットから始めたデータでも登録されている</t>
     <rPh sb="5" eb="6">
       <t>ハジ</t>
@@ -1281,6 +1163,136 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（性）の欄にひらがな・漢字でデータを入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の欄にひらがな・漢字でデータを入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（性）の欄に全角カタカナでデータを入力する</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の欄に全角カタカナでデータを入力する</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の欄に半角数字で最大7文字でデータを入力する</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市町村）の欄にひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を含めたデータで入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄にひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を含めたデータで入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1308,10 +1320,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1372,42 +1383,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,367 +1740,373 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.08203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="4">
-        <v>45245</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="4">
-        <v>45245</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2103,543 +2123,543 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="6"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="15" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="C17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2654,547 +2674,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52095E07-41D2-4F5E-A15E-167352751EE9}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.9140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="E4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="E5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="E7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="E9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="E11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="E12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="E13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="E14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+    <row r="15" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="E15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+    <row r="16" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="E17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+    <row r="18" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="E18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="9">
-        <v>45245</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45245</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3210,383 +3236,385 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.75" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="13.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.08203125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="4">
-        <v>45245</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
+    <row r="4" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="4">
-        <v>45245</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45245</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
